--- a/Module3/corpFinance/assignment/CorpFinance_Assignment.xlsx
+++ b/Module3/corpFinance/assignment/CorpFinance_Assignment.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Beta Brit" sheetId="12" state="hidden" r:id="rId1"/>
+    <sheet name="Beta Brit" sheetId="12" r:id="rId1"/>
     <sheet name="Beta Nestle" sheetId="4" r:id="rId2"/>
     <sheet name="Beta HatsunAgro" sheetId="10" r:id="rId3"/>
     <sheet name="Beta Dabur" sheetId="9" r:id="rId4"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -172,9 +172,6 @@
     <t>cost of Equity</t>
   </si>
   <si>
-    <t>cost of Debt</t>
-  </si>
-  <si>
     <t>* - beta calculated of  5 year montly data from Apr,2015 to Mar, 2020</t>
   </si>
   <si>
@@ -256,16 +253,121 @@
     <t xml:space="preserve">WACC for Britannia </t>
   </si>
   <si>
-    <t>(EBIT/Interest)</t>
-  </si>
-  <si>
-    <t>(EBITDA/Debt)</t>
-  </si>
-  <si>
     <t>Equity Beta of Britannia derived from peer firms</t>
   </si>
   <si>
     <t>Unlevered Beta</t>
+  </si>
+  <si>
+    <t>Tax rate</t>
+  </si>
+  <si>
+    <t>Cost of Debt with tax shield</t>
+  </si>
+  <si>
+    <t>cost of debt*(1-T)</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt for Britannia </t>
+  </si>
+  <si>
+    <t>EBIT/Interest</t>
+  </si>
+  <si>
+    <t>EBITDA/Debt</t>
+  </si>
+  <si>
+    <t>Net Cash generated from operating</t>
+  </si>
+  <si>
+    <t>commercial paper@ 5.9%pa</t>
+  </si>
+  <si>
+    <t>24.05 crores shares issued</t>
+  </si>
+  <si>
+    <t>Non Current Borrowing</t>
+  </si>
+  <si>
+    <t>Current Borrowing</t>
+  </si>
+  <si>
+    <t>Cost of Borrowing</t>
+  </si>
+  <si>
+    <t>Cost of Debentures</t>
+  </si>
+  <si>
+    <t>cost of commerical paper</t>
+  </si>
+  <si>
+    <t>Non convertible debentures @ 8% rate</t>
+  </si>
+  <si>
+    <t>weighted average of current and non current borrowings</t>
+  </si>
+  <si>
+    <t>Economic Value added</t>
+  </si>
+  <si>
+    <t>Equity(ROE - cost of equity)</t>
+  </si>
+  <si>
+    <t>Debt to Asset Ratio</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Higher the debt, lower the equity and higher ROE</t>
+  </si>
+  <si>
+    <t>for last 5 years, ROE exceeded cost of equity including dividens</t>
+  </si>
+  <si>
+    <t>Book value epr share</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>MP/EPS</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>PAT/shares</t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t>book value</t>
+  </si>
+  <si>
+    <t>b/shares</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>MP/BPS</t>
+  </si>
+  <si>
+    <t>Penind</t>
+  </si>
+  <si>
+    <t>1.writeup document</t>
+  </si>
+  <si>
+    <t>2.5 years ROE</t>
+  </si>
+  <si>
+    <t>NIFTY50</t>
   </si>
 </sst>
 </file>
@@ -278,7 +380,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -622,7 +724,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -704,11 +806,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="9" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="9" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="9" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -734,7 +833,6 @@
     <xf numFmtId="10" fontId="21" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="21" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="22" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="22" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -774,6 +872,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="23" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="21" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1214,11 +1327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="169405824"/>
-        <c:axId val="169404288"/>
+        <c:axId val="200698496"/>
+        <c:axId val="200700672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169405824"/>
+        <c:axId val="200698496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,12 +1362,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169404288"/>
+        <c:crossAx val="200700672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169404288"/>
+        <c:axId val="200700672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169405824"/>
+        <c:crossAx val="200698496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1738,11 +1851,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171281792"/>
-        <c:axId val="170283776"/>
+        <c:axId val="200226688"/>
+        <c:axId val="200249344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="171281792"/>
+        <c:axId val="200226688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,12 +1886,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170283776"/>
+        <c:crossAx val="200249344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="170283776"/>
+        <c:axId val="200249344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +1922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171281792"/>
+        <c:crossAx val="200226688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2262,11 +2375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="169721856"/>
-        <c:axId val="169723392"/>
+        <c:axId val="200631424"/>
+        <c:axId val="200633344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169721856"/>
+        <c:axId val="200631424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2305,12 +2418,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169723392"/>
+        <c:crossAx val="200633344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169723392"/>
+        <c:axId val="200633344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2346,7 +2459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169721856"/>
+        <c:crossAx val="200631424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2799,11 +2912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137059712"/>
-        <c:axId val="137057792"/>
+        <c:axId val="201105792"/>
+        <c:axId val="201107712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137059712"/>
+        <c:axId val="201105792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,12 +2947,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137057792"/>
+        <c:crossAx val="201107712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137057792"/>
+        <c:axId val="201107712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2870,7 +2983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137059712"/>
+        <c:crossAx val="201105792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3347,7 +3460,7 @@
   <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3373,7 +3486,7 @@
     <row r="2" spans="1:16" ht="16" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -3385,12 +3498,12 @@
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="B3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -4899,7 +5012,7 @@
   <dimension ref="B1:P64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4936,7 +5049,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -6446,7 +6559,7 @@
   <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7996,7 +8109,7 @@
   <dimension ref="B1:P64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9543,7 +9656,7 @@
   <dimension ref="B1:P64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11090,7 +11203,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11115,7 +11228,7 @@
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="43"/>
       <c r="B2" s="45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -11146,73 +11259,73 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="84">
         <v>0.45</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="85">
         <v>0.27</v>
       </c>
-      <c r="F6" s="88">
+      <c r="F6" s="86">
         <v>0.02</v>
       </c>
-      <c r="G6" s="89">
+      <c r="G6" s="87">
         <f>D6/(1+((1-E6)*F6))</f>
         <v>0.44352454169130695</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="81">
         <v>0.91</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="89">
         <v>0.35</v>
       </c>
-      <c r="F7" s="84">
+      <c r="F7" s="82">
         <v>1.01</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="90">
         <f>D7/(1+((1-E7)*F7))</f>
         <v>0.54935104135224866</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="81">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="89">
         <v>0.16</v>
       </c>
-      <c r="F8" s="84">
+      <c r="F8" s="82">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G8" s="92">
+      <c r="G8" s="90">
         <f>D8/(1+((1-E8)*F8))</f>
         <v>0.5383452965621458</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1">
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="92">
         <v>1.46</v>
       </c>
-      <c r="E9" s="95">
+      <c r="E9" s="93">
         <v>0.25</v>
       </c>
-      <c r="F9" s="96">
+      <c r="F9" s="94">
         <v>0</v>
       </c>
-      <c r="G9" s="97">
+      <c r="G9" s="95">
         <f>D9/(1+((1-E9)*F9))</f>
         <v>1.46</v>
       </c>
@@ -11283,18 +11396,18 @@
       <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="C16" s="77"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C17" s="78" t="s">
-        <v>68</v>
+      <c r="C17" s="76" t="s">
+        <v>65</v>
       </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="81">
+      <c r="E17" s="79">
         <f>G11</f>
         <v>0.54384816895719723</v>
       </c>
@@ -11302,22 +11415,22 @@
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="59" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="82">
+      <c r="E18" s="80">
         <v>0.25</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="59" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="16"/>
-      <c r="E19" s="83">
+      <c r="E19" s="81">
         <v>1203.92</v>
       </c>
       <c r="F19" s="16" t="s">
@@ -11326,11 +11439,11 @@
       <c r="G19" s="17"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="59" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="83">
+      <c r="E20" s="81">
         <v>4274.6499999999996</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -11339,11 +11452,11 @@
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="84">
+      <c r="D21" s="77"/>
+      <c r="E21" s="82">
         <f>E19/E20</f>
         <v>0.2816417718409695</v>
       </c>
@@ -11351,18 +11464,18 @@
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="3:7" ht="15" thickBot="1">
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="80"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="39" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="39"/>
-      <c r="E23" s="98">
+      <c r="E23" s="96">
         <f>E17*(1+((1-E18)*E21))</f>
         <v>0.65872594039537613</v>
       </c>
@@ -11371,7 +11484,7 @@
     </row>
     <row r="25" spans="3:7">
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -11381,19 +11494,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I27"/>
+  <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" customWidth="1"/>
+    <col min="6" max="6" width="1.6328125" customWidth="1"/>
+    <col min="7" max="7" width="37.81640625" customWidth="1"/>
     <col min="8" max="8" width="24.08984375" customWidth="1"/>
+    <col min="9" max="9" width="2.90625" customWidth="1"/>
+    <col min="11" max="11" width="21.36328125" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.5">
+    <row r="1" spans="2:13" ht="15.5">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -11401,10 +11521,16 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="2:9" ht="16" thickBot="1">
+      <c r="J1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="16" thickBot="1">
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -11412,56 +11538,91 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="74">
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="15" thickBot="1">
+      <c r="B3" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="72">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="75">
+      <c r="J3" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="73">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="76">
+      <c r="J4" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="99">
+        <v>1484.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="74">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="15" thickBot="1">
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="68"/>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="J5" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="97">
+        <v>1955.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15" thickBot="1">
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="J6" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="97">
+        <v>2106.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
@@ -11470,12 +11631,20 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="50">
+      <c r="H7" s="49">
         <f>H3+(H5*H4)</f>
         <v>0.1062</v>
       </c>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="J7" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="97">
+        <v>63.66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -11483,234 +11652,374 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" ht="15" thickBot="1">
-      <c r="B9" s="48" t="s">
-        <v>64</v>
+      <c r="J8" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="97">
+        <v>168.57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15" thickBot="1">
+      <c r="B9" s="47" t="s">
+        <v>63</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="56" t="s">
+      <c r="H9" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="70">
+        <f>M5/M7</f>
+        <v>30.711592836946277</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="69">
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="68">
         <f>H7</f>
         <v>0.1062</v>
       </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="59" t="s">
-        <v>37</v>
+      <c r="J10" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="71">
+        <f>M6/H18</f>
+        <v>1.75003322479899</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="58" t="s">
+        <v>78</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="70">
-        <f>H15/H12</f>
-        <v>5.4131503754402281E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="60" t="s">
-        <v>52</v>
+      <c r="H11" s="69">
+        <f>((H14/H18)*H15)+((H16/H18)*H17)</f>
+        <v>7.1627525084723226E-2</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="71">
+        <v>1484.83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="58" t="s">
+        <v>66</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="71">
-        <v>1203.92</v>
-      </c>
-      <c r="I12" s="49"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="60" t="s">
-        <v>34</v>
+      <c r="H12" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="J12" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="100">
+        <f>H18/M13</f>
+        <v>0.16598009209474179</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="15" thickBot="1">
+      <c r="B13" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="71">
-        <v>4274.6499999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="59" t="s">
-        <v>51</v>
+      <c r="H13" s="69">
+        <f>H11*(1-H12)</f>
+        <v>5.3720643813542419E-2</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="78">
+        <v>7253.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="58" t="s">
+        <v>76</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="70">
-        <f>H16/H13</f>
-        <v>0.34723310680406583</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="59" t="s">
-        <v>54</v>
+      <c r="H14" s="97">
+        <v>723.93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="58" t="s">
+        <v>79</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="71">
-        <v>65.17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="60" t="s">
-        <v>55</v>
+      <c r="H15" s="69">
+        <v>0.08</v>
+      </c>
+      <c r="K15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="58" t="s">
+        <v>77</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="71">
-        <v>1484.3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="60" t="s">
-        <v>57</v>
+      <c r="H16" s="97">
+        <v>479.99</v>
+      </c>
+      <c r="K16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="58" t="s">
+        <v>80</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="71">
-        <v>1955.1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="60" t="s">
-        <v>58</v>
+      <c r="H17" s="69">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="59" t="s">
+        <v>51</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="72">
-        <f>H12/(H12+H13)</f>
-        <v>0.21975077438090598</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="60" t="s">
-        <v>59</v>
+      <c r="H18" s="97">
+        <f>H14+H16</f>
+        <v>1203.92</v>
+      </c>
+      <c r="I18" s="48"/>
+      <c r="K18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15" thickBot="1">
+      <c r="B19" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="72">
-        <f>H13/(H13+H12)</f>
-        <v>0.78024922561909404</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="60" t="s">
-        <v>61</v>
+      <c r="H19" s="97">
+        <v>4274.6499999999996</v>
+      </c>
+      <c r="K19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="58" t="s">
+        <v>50</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="72">
-        <v>2106.9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="60" t="s">
-        <v>62</v>
+      <c r="H20" s="69">
+        <f>M4/H19</f>
+        <v>0.34723310680406583</v>
+      </c>
+      <c r="J20" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="109"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="59" t="s">
+        <v>56</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="16" t="s">
-        <v>65</v>
-      </c>
+      <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="71">
-        <f>H17/H15</f>
-        <v>29.999999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15" thickBot="1">
-      <c r="B22" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="73">
-        <f>H20/H12</f>
-        <v>1.75003322479899</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15" thickBot="1">
-      <c r="B23" s="51" t="s">
+      <c r="H21" s="70">
+        <v>1955.1</v>
+      </c>
+      <c r="J21" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="103"/>
+    </row>
+    <row r="22" spans="2:13" ht="15" thickBot="1">
+      <c r="B22" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="71">
+        <f>H18/(H18+H19)</f>
+        <v>0.21975077438090598</v>
+      </c>
+      <c r="J22" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="106"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="71">
+        <f>H19/(H19+H18)</f>
+        <v>0.78024922561909404</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15" thickBot="1">
+      <c r="B24" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52">
-        <f>(H18*H11)+(H19*H10)</f>
-        <v>9.4757907629180613E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="C24" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51">
+        <f>(H22*H13)+(H23*H10)</f>
+        <v>9.466762083901456E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11719,7 +12028,7 @@
   <dimension ref="A2:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11731,57 +12040,57 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="B4" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="B5" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="4">
